--- a/doc/ue_engine.xlsx
+++ b/doc/ue_engine.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\ue\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D525C0B2-F489-4E43-B57C-C6C0F2D3668F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{384403B7-67C4-4409-848C-7809C09E991D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="27">
   <si>
     <t>编辑器模式</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -111,6 +111,10 @@
   </si>
   <si>
     <t>FLinkerLoad::StaticInit(UTexture2D::StaticClass());</t>
+  </si>
+  <si>
+    <t>FCoreDelegates::OnPostEngineInit.Broadcast();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -451,8 +455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A6:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -554,9 +558,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
